--- a/publipostage/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00370240</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Efficacy of Infiltration of Chlorhydrate of Ropivacaine in the Prevention of Chronic Breast Pain After Surgery for Breast Cancer.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00853710</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Validation of a Semiquantitative Screening Assay for PSA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,32 +569,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT01455363</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Etude peropératoire de la Perfusion Sanguine Des Carcinomes Basocellulaires Par Imageur Laser Doppler, au Cours de la Manipulation de l'Influx artériel Tumoral - Recherche d'un phénomène d'hyperémie Tumorale Post-occlusive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>HPOB</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -591,28 +611,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT01334008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT01448759</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Metastatic Choroidal Melanoma</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prospective Evaluation of Plasma Alcohol Concentration in Patients Receiving Paclitaxel or Docetaxel Infusion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ALCOOTAX</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -624,32 +653,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT01448759</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT01334008</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prospective Evaluation of Plasma Alcohol Concentration in Patients Receiving Paclitaxel or Docetaxel Infusion</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ALCOOTAX</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+          <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Metastatic Choroidal Melanoma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -661,33 +691,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00957411</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT02839473</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Phase II Randomized Assessing Pelvic Irradiation Combined With Cisplatin Alone or Cisplatin Plus Cetuximab in Patients With Carcinoma of the Cervix Stage IB2, II and III</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CETUXICOL</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Hydrosorb® Versus Control (Water Based Spray) in the Management of Radio-induced Skin Toxicity: Multicentre Controlled Phase III Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>HYDROSORB</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,33 +733,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT02839473</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT00957411</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hydrosorb® Versus Control (Water Based Spray) in the Management of Radio-induced Skin Toxicity: Multicentre Controlled Phase III Randomized Trial</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HYDROSORB</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Phase II Randomized Assessing Pelvic Irradiation Combined With Cisplatin Alone or Cisplatin Plus Cetuximab in Patients With Carcinoma of the Cervix Stage IB2, II and III</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CETUXICOL</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -735,28 +775,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT02519166</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Biofilm Plaie</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -768,28 +813,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01350908</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT02849106</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Ovarian Cancer</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Predictive Response to Chemotherapy (FOLFOX or FOLFIRI) by ex Vivo Culture 3D Technique in Metastatic Colorectal Cancer: a Preliminary Study</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CULTURE3D</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -801,70 +855,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT02849106</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT01350908</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Predictive Response to Chemotherapy (FOLFOX or FOLFIRI) by ex Vivo Culture 3D Technique in Metastatic Colorectal Cancer: a Preliminary Study</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CULTURE3D</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+          <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Ovarian Cancer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT01349842</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT02831634</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CirCe01 Study: Evaluation of the Use of Circulating Tumour Cells to Guide Chemotherapy From the 3rd Line of Chemotherapy for Metastatic Breast Cancer</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CirCé01</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
+          <t>A Feasibility Study to Identify T-cell Responses to Neo-epitopes in Tumor Invaded Lymph Nodes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -875,66 +931,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT01373710</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Phase 1-2 Study of Safety and Efficacy of Intrathecal Trastuzumab Administration in Metastatic HER2 Positive Breast Cancer Patients Developing Carcinomatous Meningitis</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>HIT</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT02831634</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT01349842</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>A Feasibility Study to Identify T-cell Responses to Neo-epitopes in Tumor Invaded Lymph Nodes</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CirCe01 Study: Evaluation of the Use of Circulating Tumour Cells to Guide Chemotherapy From the 3rd Line of Chemotherapy for Metastatic Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CirCé01</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -945,32 +1015,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT01956695</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Phase II Study Evaluating the Efficacy of Lenalidomide in Association With Rituximab in Refractory or Relapse of Primary Central Nervous System Lymphoma (PCNSL)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>REVRI</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -982,32 +1057,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT02408393</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01975142</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MIRs03: A Double-blind Randomized Trial of Paravertebral Block With Ropivacaine Before Breast Cancer Surgery: Effects on Chronic Postoperative Pain</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MIRs03</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
+          <t>Validity of HER2-amplified Circulating Tumor Cells to Select Metastatic Breast Cancer Considered HER2-negative for Trastuzumab-emtansine (T-DM1) Treatment.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1019,32 +1095,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT02875652</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Study of Circulating Tumoral DNA Evolution in Plasma in Choroidal Melanoma</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>ctDNA MU</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,28 +1137,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01975142</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT02408393</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Validity of HER2-amplified Circulating Tumor Cells to Select Metastatic Breast Cancer Considered HER2-negative for Trastuzumab-emtansine (T-DM1) Treatment.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="b">
-        <v>1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MIRs03: A Double-blind Randomized Trial of Paravertebral Block With Ropivacaine Before Breast Cancer Surgery: Effects on Chronic Postoperative Pain</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MIRs03</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1089,32 +1179,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT02843386</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT02849145</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Randomized Phase III Study Comparing an Adjuvant Chemotherapy With Fotemustin to Intensive Surveillance in Patients With High Risk Uveal Melanoma</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FOTEADJ</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+          <t>Study to Evaluation Interest of the Circulating Tumor DNA Dosage in Patient With Hepatic Metastatic Uveal Melanoma Candidate to Complete Resection (R0)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1126,66 +1217,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT02849145</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT03703557</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Study to Evaluation Interest of the Circulating Tumor DNA Dosage in Patient With Hepatic Metastatic Uveal Melanoma Candidate to Complete Resection (R0)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>KDOG2</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT02834494</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01351870</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NEO-ELASTO</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>A Prospective Randomised Controlled Trial of Hyperfractionated Versus Conventionally Fractionated Radiotherapy in Standard Risk Medulloblastoma</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SIOP-PNET-4</t>
+        </is>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1196,32 +1301,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT03703557</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT02834494</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>KDOG2</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NEO-ELASTO</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1233,103 +1343,122 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01351870</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02428842</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>A Prospective Randomised Controlled Trial of Hyperfractionated Versus Conventionally Fractionated Radiotherapy in Standard Risk Medulloblastoma</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SIOP-PNET-4</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
+          <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BIO-RAIDs</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02428842</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02843386</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BIO-RAIDs</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
+          <t>Randomized Phase III Study Comparing an Adjuvant Chemotherapy With Fotemustin to Intensive Surveillance in Patients With High Risk Uveal Melanoma</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FOTEADJ</t>
+        </is>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02842723</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT03109080</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Phase II Study on the Management of Pediatric Craniopharyngioma by a Combination of Partial Surgical Resection, and Protontherapy</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A Phase I of Olaparib With Radiation Therapy in Patients With Inflammatory, Loco-regionally Advanced or Metastatic TNBC (Triple Negative Breast Cancer) or Patient With Operated TNBC With Residual Disease</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>RadioPARP</t>
+        </is>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1340,32 +1469,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>NCT04541537</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>KDOGCOV</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1377,70 +1511,72 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02546453</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02608346</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Use of Specific Genetic Alteration s of Tumoral Cells Identified by NGS to Follow Peripheral Samples of Children With Metastatic and/or High Risk Solid Tumor -</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NGSKids</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
+          <t>Circulating Tumor DNA and Follow-up of BRCA1 Mutation Carriers (CirCa 01)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT03109080</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02842723</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A Phase I of Olaparib With Radiation Therapy in Patients With Inflammatory, Loco-regionally Advanced or Metastatic TNBC (Triple Negative Breast Cancer) or Patient With Operated TNBC With Residual Disease</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>RadioPARP</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
+          <t>Phase II Study on the Management of Pediatric Craniopharyngioma by a Combination of Partial Surgical Resection, and Protontherapy</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1451,28 +1587,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02608346</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02546453</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Circulating Tumor DNA and Follow-up of BRCA1 Mutation Carriers (CirCa 01)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Use of Specific Genetic Alteration s of Tumoral Cells Identified by NGS to Follow Peripheral Samples of Children With Metastatic and/or High Risk Solid Tumor -</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NGSKids</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1484,32 +1629,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT04369066</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT04327063</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>COVID-19 Study of the Serological Response Against the SARS-CoV-2 Virus in 2 Types of Employees, Hospital and Non-hospital, at Institute Curie and Institute Pasteur</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Curie-O-SA</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
+          <t>A Double-blind Randomized Trial of Interpectoral Nerve Block (Pecs 1 and 2) With Ropivacaine Versus Placebo Before Breast Cancer Surgery: Effects on Acute Postoperative Pain. (MIRs 04)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1521,28 +1667,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT04327063</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT04145817</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>A Double-blind Randomized Trial of Interpectoral Nerve Block (Pecs 1 and 2) With Ropivacaine Versus Placebo Before Breast Cancer Surgery: Effects on Acute Postoperative Pain. (MIRs 04)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="b">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Clinical Application of the European Horizon 2020 Research Project "BRIDGES" - Study of the Psychological Impact of Breast Cancer Risk Communication in Cancer Genetics Based on the Personalized Estimation of the BOADICEA V5/PLUS Model</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>BRIDGEScohort2</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1554,32 +1709,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT04145817</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT03298893</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Clinical Application of the European Horizon 2020 Research Project "BRIDGES" - Study of the Psychological Impact of Breast Cancer Risk Communication in Cancer Genetics Based on the Personalized Estimation of the BOADICEA V5/PLUS Model</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BRIDGEScohort2</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NiCOL</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1591,32 +1751,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT03298893</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT04369066</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NiCOL</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>COVID-19 Study of the Serological Response Against the SARS-CoV-2 Virus in 2 Types of Employees, Hospital and Non-hospital, at Institute Curie and Institute Pasteur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Curie-O-SA</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1628,32 +1793,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>NCT04478175</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Prospective Evaluation of a Program for Early Identification of Needs and Multidisciplinary Intervention in Supportive Care in Digestive Oncology - DISSPO Parcours Dig' Study</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>DParcoursDig</t>
         </is>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1665,70 +1835,80 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT04827030</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT03011528</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A Double-blind Randomized Non-inferiority Trial of Erector Spinae Block (ESP) Versus Paravertebral Block (PVB) Before Breast Cancer Surgery: Effects on Acute Postoperative Pain.</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ER-One</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>CombinaiR3 - First-line Treatment of Ewing Tumours With Primary Extrapulmonary Dissemination in Patients From 2 to 50 Years</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CombinaiR3</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02244125</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02864563</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PCD</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+          <t>Pan-genome Analysis of Neuroblastoma by Comparative Genomic Hybridization and Correlation With Pathology for the Diagnostic and the Prognostic Classification</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PHRCNB07</t>
+        </is>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1739,70 +1919,80 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02864563</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT04217109</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Pan-genome Analysis of Neuroblastoma by Comparative Genomic Hybridization and Correlation With Pathology for the Diagnostic and the Prognostic Classification</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PHRCNB07</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>KDOG1 :Transcutaneous Breast Cancer Diagnosis by Canine Odorology</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>KDOG1</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02849158</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02244125</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Interest in Studying Fibroblast Before and After Neoadjuvant Chemo-radiotherapy in Patient With Locally Advanced Rectal Adenocarcinoma : Exploratory Study</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FibroRect</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PCD</t>
+        </is>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1813,32 +2003,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT04217109</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02849158</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>KDOG1 :Transcutaneous Breast Cancer Diagnosis by Canine Odorology</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>KDOG1</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Interest in Studying Fibroblast Before and After Neoadjuvant Chemo-radiotherapy in Patient With Locally Advanced Rectal Adenocarcinoma : Exploratory Study</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FibroRect</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1850,70 +2045,80 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT03011528</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT04827030</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>CombinaiR3 - First-line Treatment of Ewing Tumours With Primary Extrapulmonary Dissemination in Patients From 2 to 50 Years</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CombinaiR3</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>A Double-blind Randomized Non-inferiority Trial of Erector Spinae Block (ESP) Versus Paravertebral Block (PVB) Before Breast Cancer Surgery: Effects on Acute Postoperative Pain.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ER-One</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02866149</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02802969</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Analysis of Circulating Tumor Markers in the Blood</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ALCINA</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
+          <t>Improvement of Local Control in Skull Base, Spine and Sacral Chordomas Treated by Surgery and Protontherapy Targeting Hypoxic Cells Revealed by [18F]FAZA) PET/CT Tracers</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PROTONCHORDE01</t>
+        </is>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1924,32 +2129,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT04402606</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT05141383</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>DERMACLIC : Study on Skin Toxicities Induced by Cancer Treatments</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DERMACLIC</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Comparative Study of Diagnostic and Prognosis Biomarkers of Prostate Cancer in Liquid Biopsy</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>HOPE</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1961,66 +2171,80 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT04634097</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT04402606</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>DECLIC Patient Education Program : Assessment Through a Population Health Intervention Research Approach (LE DECLIC EPRI)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="b">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DERMACLIC : Study on Skin Toxicities Induced by Cancer Treatments</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>DERMACLIC</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT05141383</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02866149</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Comparative Study of Diagnostic and Prognosis Biomarkers of Prostate Cancer in Liquid Biopsy</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HOPE</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Analysis of Circulating Tumor Markers in the Blood</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ALCINA</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2031,32 +2255,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02802969</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT04634097</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Improvement of Local Control in Skull Base, Spine and Sacral Chordomas Treated by Surgery and Protontherapy Targeting Hypoxic Cells Revealed by [18F]FAZA) PET/CT Tracers</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PROTONCHORDE01</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
+          <t>DECLIC Patient Education Program : Assessment Through a Population Health Intervention Research Approach (LE DECLIC EPRI)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2068,24 +2293,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>NCT00792025</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>A Multicentre Phase II Trial to Determine the Efficacy of the Anti-Tyrosine Kinase Sunitinib (Sutent®) as Second Line Therapy in Patients With Transitional Cell Carcinoma (TCC) of the Urothelium Which Failed or Progressed After First Line Chemotherapy for Advanced or Metastatic Disease</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -682,6 +707,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +754,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -766,6 +801,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -804,6 +844,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -846,6 +891,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +934,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,6 +1024,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1071,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1118,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,6 +1161,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,6 +1208,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1170,6 +1255,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1298,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,6 +1345,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1292,6 +1392,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1334,6 +1439,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1376,6 +1486,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1418,6 +1533,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1460,6 +1580,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1502,6 +1627,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1540,6 +1670,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1578,6 +1713,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1620,6 +1760,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1658,6 +1803,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1700,6 +1850,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1742,6 +1897,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1784,6 +1944,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1826,6 +1991,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1868,6 +2038,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1910,6 +2085,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1952,6 +2132,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1994,6 +2179,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2036,6 +2226,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2078,6 +2273,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2120,6 +2320,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2162,6 +2367,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2204,6 +2414,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2246,6 +2461,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2283,6 +2503,11 @@
       </c>
       <c r="J45" t="b">
         <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2317,6 +2542,11 @@
       </c>
       <c r="J46" t="b">
         <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
   </sheetData>
